--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>202308141752_TEST_SR</t>
+          <t>202308151815_TEST_SR</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28905" yWindow="3090" windowWidth="29040" windowHeight="12855" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30510" yWindow="2535" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -41,7 +41,6 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -445,7 +444,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -456,8 +455,8 @@
     <col width="24.5" customWidth="1" style="2" min="4" max="4"/>
     <col width="24.25" customWidth="1" style="2" min="5" max="5"/>
     <col width="20.375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="9"/>
-    <col width="9" customWidth="1" style="2" min="10" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="7" max="10"/>
+    <col width="9" customWidth="1" style="2" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,7 +499,7 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>202308151815_TEST_SR</t>
+          <t>GS2308160003_TEST_SR</t>
         </is>
       </c>
       <c r="B2" s="7" t="inlineStr">
@@ -535,22 +534,78 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="6" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>GS2308160001_TEST_SR</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>O01-003</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>DC-013</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>AGTCT</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>DC-014</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>DC-015</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="6" t="n"/>
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>GS2308160002_TEST_SR</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>O01-004</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>DC-013</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>AGTCT</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>DC-014</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>DC-015</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="4" t="n"/>

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -1,53 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB902B3-996F-40E9-923D-7E40A5A6A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30510" yWindow="2535" windowWidth="22890" windowHeight="12060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="31215" yWindow="5970" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+  <si>
+    <t>客户样本号</t>
+  </si>
+  <si>
+    <t>子文库名称</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I7_Index</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I5_Index</t>
+  </si>
+  <si>
+    <t>项目号</t>
+  </si>
+  <si>
+    <t>O01-002</t>
+  </si>
+  <si>
+    <t>DC-013</t>
+  </si>
+  <si>
+    <t>AGTCT</t>
+  </si>
+  <si>
+    <t>DC-014</t>
+  </si>
+  <si>
+    <t>DC-015</t>
+  </si>
+  <si>
+    <t>J022</t>
+  </si>
+  <si>
+    <t>O01-003</t>
+  </si>
+  <si>
+    <t>O01-004</t>
+  </si>
+  <si>
+    <t>GS2308220001_TEST_SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308161001_TEST_SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308160102_TEST_SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
       <name val="Helvetica"/>
       <family val="2"/>
-      <color rgb="FF606266"/>
-      <sz val="10.5"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,101 +149,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,213 +445,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="20.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.5" customWidth="1" style="2" min="3" max="3"/>
-    <col width="24.5" customWidth="1" style="2" min="4" max="4"/>
-    <col width="24.25" customWidth="1" style="2" min="5" max="5"/>
-    <col width="20.375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="9" customWidth="1" style="2" min="7" max="10"/>
-    <col width="9" customWidth="1" style="2" min="11" max="16384"/>
+    <col min="1" max="1" width="27.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="2" customWidth="1"/>
+    <col min="7" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>客户样本号</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>子文库名称</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>I7_Index</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>I5_Index</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>项目号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>GS2308160003_TEST_SR</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>O01-002</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>DC-013</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>AGTCT</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>DC-014</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>DC-015</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>GS2308160001_TEST_SR</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>O01-003</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>DC-013</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>AGTCT</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>DC-014</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>DC-015</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>GS2308160002_TEST_SR</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>O01-004</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>DC-013</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>AGTCT</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>DC-014</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>DC-015</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB902B3-996F-40E9-923D-7E40A5A6A8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B99981-96D1-4533-9596-6E8A463A18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="5970" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>客户样本号</t>
   </si>
@@ -43,9 +43,6 @@
     <t>项目号</t>
   </si>
   <si>
-    <t>O01-002</t>
-  </si>
-  <si>
     <t>DC-013</t>
   </si>
   <si>
@@ -61,41 +58,52 @@
     <t>J022</t>
   </si>
   <si>
-    <t>O01-003</t>
-  </si>
-  <si>
     <t>O01-004</t>
   </si>
   <si>
-    <t>GS2308220001_TEST_SR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308161001_TEST_SR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308160102_TEST_SR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>GS2308230003_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230008_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230004_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230010_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230006_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230005_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230007_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308230009_TEST_SR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -162,14 +170,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +457,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,111 +496,191 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B99981-96D1-4533-9596-6E8A463A18B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741E828-1366-439D-BA00-B50FD430A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="4110" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>客户样本号</t>
   </si>
@@ -61,36 +61,13 @@
     <t>O01-004</t>
   </si>
   <si>
-    <t>GS2308230003_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230008_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230004_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230010_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230006_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230005_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230007_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2308230009_TEST_SR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>GS2308280004test</t>
+  </si>
+  <si>
+    <t>GS2308280005test</t>
+  </si>
+  <si>
+    <t>GS2308280006test</t>
   </si>
 </sst>
 </file>
@@ -457,7 +434,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,119 +542,49 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>客户样本号</t>
-  </si>
-  <si>
-    <t>子文库名称</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I7_Index</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I5_Index</t>
-  </si>
-  <si>
-    <t>项目号</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,37 +420,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>客户样本号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>子文库名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>I7_Index</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>I5_Index</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>项目号</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>客户样本号</t>
+  </si>
+  <si>
+    <t>子文库名称</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I7_Index</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I5_Index</t>
+  </si>
+  <si>
+    <t>项目号</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +75,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,57 +391,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>客户样本号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>子文库名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>I7_Index</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>I5_Index</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>项目号</t>
-        </is>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>客户样本号</t>
-  </si>
-  <si>
-    <t>子文库名称</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I7_Index</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I5_Index</t>
-  </si>
-  <si>
-    <t>项目号</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,37 +420,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>客户样本号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>子文库名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>I7</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>I7_Index</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>I5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>I5_Index</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>项目号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080096_TEST_SR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>O01-004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DC-013</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AGTCT</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DC-014</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DC-015</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309080098_TEST_SR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>O01-004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DC-013</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AGTCT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DC-014</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DC-015</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>J022</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080096_TEST_SR</t>
+          <t>GS2309110007_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309080098_TEST_SR</t>
+          <t>GS2309110005_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110007_TEST_SR</t>
+          <t>GS2309120063_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309110005_TEST_SR</t>
+          <t>GS2309120061_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120063_TEST_SR</t>
+          <t>GS2309150040_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309120061_TEST_SR</t>
+          <t>GS2309150038_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150040_TEST_SR</t>
+          <t>GS2309180006_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309150038_TEST_SR</t>
+          <t>GS2309180008_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180006_TEST_SR</t>
+          <t>GS2401150009_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309180008_TEST_SR</t>
+          <t>GS2401150011_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -1,37 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5178C1D9-9AD8-48D7-98D3-EBCC0B123B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
+  <si>
+    <t>客户样本号</t>
+  </si>
+  <si>
+    <t>子文库名称</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I7_Index</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I5_Index</t>
+  </si>
+  <si>
+    <t>项目号</t>
+  </si>
+  <si>
+    <t>O01-004</t>
+  </si>
+  <si>
+    <t>DC-013</t>
+  </si>
+  <si>
+    <t>AGTCT</t>
+  </si>
+  <si>
+    <t>DC-014</t>
+  </si>
+  <si>
+    <t>DC-015</t>
+  </si>
+  <si>
+    <t>J027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2311160092_test</t>
+  </si>
+  <si>
+    <t>GS2311160093_test</t>
+  </si>
+  <si>
+    <t>GS2311160094_test</t>
+  </si>
+  <si>
+    <t>GS2311160095_test</t>
+  </si>
+  <si>
+    <t>GS2311160096_test</t>
+  </si>
+  <si>
+    <t>GS2311160097_test</t>
+  </si>
+  <si>
+    <t>GS2311160098_test</t>
+  </si>
+  <si>
+    <t>GS2311160099_test</t>
+  </si>
+  <si>
+    <t>GS2311160100_test</t>
+  </si>
+  <si>
+    <t>GS2311160101_test</t>
+  </si>
+  <si>
+    <t>GS2311160102_test</t>
+  </si>
+  <si>
+    <t>GS2311160103_test</t>
+  </si>
+  <si>
+    <t>GS2311160104_test</t>
+  </si>
+  <si>
+    <t>GS2311160105_test</t>
+  </si>
+  <si>
+    <t>GS2311160106_test</t>
+  </si>
+  <si>
+    <t>GS2311160107_test</t>
+  </si>
+  <si>
+    <t>GS2311160108_test</t>
+  </si>
+  <si>
+    <t>GS2311160109_test</t>
+  </si>
+  <si>
+    <t>GS2311160110_test</t>
+  </si>
+  <si>
+    <t>GS2311160111_test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +167,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,131 +491,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>客户样本号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>子文库名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>I7</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>I7_Index</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>I5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>I5_Index</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>项目号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2401150009_TEST_SR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>O01-004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DC-013</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AGTCT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DC-014</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DC-015</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2401150011_TEST_SR</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>O01-004</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DC-013</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AGTCT</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DC-014</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DC-015</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -75,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -440,7 +427,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -486,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160013_TEST_SR</t>
+          <t>GS2404290631_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -523,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2401160011_TEST_SR</t>
+          <t>GS2404290629_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,6 +545,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/SR样本子文库导入模板.xlsx
+++ b/data/import_excel/SR样本子文库导入模板.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290631_TEST_SR</t>
+          <t>GS2405210051_TEST_SR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2404290629_TEST_SR</t>
+          <t>GS2405210049_TEST_SR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
